--- a/employee.xlsx
+++ b/employee.xlsx
@@ -8,69 +8,137 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\suidhaaga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96240C11-A2DC-455F-915A-1F96D3FB42AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F261A6D-DFB3-4621-82BF-AB214189A92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>employment</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Excel</t>
-  </si>
-  <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Excel2</t>
-  </si>
-  <si>
-    <t>Unemployed</t>
-  </si>
-  <si>
-    <t>index</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+  <si>
+    <t>SDJ/003/01</t>
+  </si>
+  <si>
+    <t>SAIMA SHAIKH</t>
+  </si>
+  <si>
+    <t>JULY-NOV</t>
+  </si>
+  <si>
+    <t>B-1</t>
+  </si>
+  <si>
+    <t>11:00 AM TO 1:00PM</t>
+  </si>
+  <si>
+    <t>SDJ/003/02</t>
+  </si>
+  <si>
+    <t>AFREEN QURESHI</t>
+  </si>
+  <si>
+    <t>SDJ/003/03</t>
+  </si>
+  <si>
+    <t>SAMREEN KHAN</t>
+  </si>
+  <si>
+    <t>SDJ/003/04</t>
+  </si>
+  <si>
+    <t>KHUSHNUMA ANSARI</t>
+  </si>
+  <si>
+    <t>SDJ/003/05</t>
+  </si>
+  <si>
+    <t>SHABANA ANSARI</t>
+  </si>
+  <si>
+    <t>SDJ/003/06</t>
+  </si>
+  <si>
+    <t>FRAHNAAZ KHAN</t>
+  </si>
+  <si>
+    <t>SDJ/003/07</t>
+  </si>
+  <si>
+    <t>AFSANA ANSARI</t>
+  </si>
+  <si>
+    <t>SDJ/003/08</t>
+  </si>
+  <si>
+    <t>RIFAT SHAIKH</t>
+  </si>
+  <si>
+    <t>SDJ/003/09</t>
+  </si>
+  <si>
+    <t>MISHAB TAMBOLI</t>
+  </si>
+  <si>
+    <t>SDJ/003/10</t>
+  </si>
+  <si>
+    <t>PARVEEN SHAIKH</t>
+  </si>
+  <si>
+    <t>SDJ/003/11</t>
+  </si>
+  <si>
+    <t>RAZDA SHAIKH</t>
+  </si>
+  <si>
+    <t>SDJ/003/12</t>
+  </si>
+  <si>
+    <t>SARA AGLODIA</t>
+  </si>
+  <si>
+    <t>SDJ/003/13</t>
+  </si>
+  <si>
+    <t>AISHA MANASIYA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,12 +157,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,67 +461,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>9594686902</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9594686902</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8657787304</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>15485</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>7894561235</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2165</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>7894561235</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="C4" s="1">
+        <v>8454930642</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8108901494</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8355880926</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8693014533</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9324490269</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8369589422</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8097210230</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8928781598</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9769613442</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9619907544</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
